--- a/data/projects_mapping/projects_summary.xlsx
+++ b/data/projects_mapping/projects_summary.xlsx
@@ -441,52 +441,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Agriculture_pct</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industrialization_pct</t>
+          <t>02</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Urbanisation_pct</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Mindset_Change_pct</t>
+          <t>04</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Effective_Governance_Systems_Institutions_pct</t>
+          <t>05</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Private_Sector_pct</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Enhanced_Public_Sector_Performance_pct</t>
+          <t>07</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Human_Capital_Development_pct</t>
+          <t>08</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Economic_Infrastructure_pct</t>
+          <t>09</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Environmental_Sustainability_pct</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">

--- a/data/projects_mapping/projects_summary.xlsx
+++ b/data/projects_mapping/projects_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,40 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
         <v>12</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>10</v>
       </c>
       <c r="M2" t="n">
         <v>358</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>424</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -611,31 +611,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>7</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>347</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
         <v>147</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -764,16 +764,16 @@
         <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>170</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" t="n">
         <v>39</v>
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -819,7 +819,7 @@
         <v>257</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>239</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -951,13 +951,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M11" t="n">
         <v>158</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -966,17 +966,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mchinji</t>
+          <t>Machinga</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>111</v>
+        <v>572</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1012,23 +1012,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mulanje</t>
+          <t>Mangochi</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1037,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M13" t="n">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1058,41 +1058,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mwanza</t>
+          <t>Mchinji</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>9</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
@@ -1104,23 +1104,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mzimba</t>
+          <t>Mulanje</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>71</v>
+        <v>284</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1150,14 +1150,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mzuzu City</t>
+          <t>Mwanza</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1196,20 +1196,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nkhatabay</t>
+          <t>Mzimba</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N17" t="n">
         <v>1</v>
@@ -1242,44 +1242,44 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nkhotakota</t>
+          <t>Mzuzu City</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>443</v>
+        <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1288,44 +1288,44 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nsanje</t>
+          <t>Neno</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>420</v>
+        <v>101</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1334,11 +1334,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ntcheu</t>
+          <t>Nkhatabay</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1350,28 +1350,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1380,44 +1380,44 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ntchisi</t>
+          <t>Nkhotakota</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>11</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
         <v>3</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M21" t="n">
-        <v>105</v>
+        <v>443</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Phalombe</t>
+          <t>Nsanje</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1436,34 +1436,34 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>19</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
         <v>7</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1472,44 +1472,44 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rumphi</t>
+          <t>Ntcheu</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>8</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1518,44 +1518,274 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Ntchisi</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>105</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Phalombe</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>79</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rumphi</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>17</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>234</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Salima</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>14</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>250</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Thyolo</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>18</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C28" t="n">
+        <v>14</v>
+      </c>
+      <c r="D28" t="n">
+        <v>36</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>392</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Zomba</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
         <v>37</v>
       </c>
-      <c r="E24" t="n">
-        <v>11</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>11</v>
-      </c>
-      <c r="M24" t="n">
-        <v>392</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8</v>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>77</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>9</v>
+      </c>
+      <c r="M29" t="n">
+        <v>593</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
